--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5736" yWindow="1632" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,18 +16,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,19 +441,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.77734375" customWidth="1" min="1" max="1"/>
-    <col width="13.109375" customWidth="1" min="2" max="2"/>
-    <col width="11.6640625" customWidth="1" min="3" max="3"/>
-    <col width="14.77734375" customWidth="1" min="4" max="4"/>
-    <col width="12.6640625" customWidth="1" min="5" max="5"/>
+    <col width="13.77734375" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.109375" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.6640625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.77734375" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12.6640625" customWidth="1" style="5" min="5" max="5"/>
+    <col width="12.109375" customWidth="1" style="5" min="6" max="6"/>
+    <col width="12.21875" customWidth="1" style="5" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,17 +471,17 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Invoice Number</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Staff</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Invoice Number</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
         </is>
       </c>
     </row>
@@ -494,13 +491,13 @@
           <t>PlaceHolder</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Placeholder</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Placeholder</t>
-        </is>
       </c>
       <c r="D2" s="4" t="n">
         <v>2311020000</v>
@@ -513,135 +510,171 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
+          <t xml:space="preserve">Apple </t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2311030001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
+        <v>2311060001</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lola </t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tina</t>
-        </is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2311030002</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+        <v>2311060002</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mommy</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Manis</t>
-        </is>
+          <t xml:space="preserve">Strawberry </t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2311030003</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
+        <v>2311060002</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mommy</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A6</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Madons</t>
-        </is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2311030004</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
+        <v>2311060002</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mommy</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Nathan</t>
-        </is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2311050005</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
+        <v>2311060002</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mommy</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45235</v>
+        <v>45236</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D17</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+          <t>Guava</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2311060002</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mommy</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cabbage</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2311070003</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Tina</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2311050006</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Potato</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2311070003</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tina</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -660,9 +693,6 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -677,13 +677,67 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2311090004</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ji</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2311090004</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ji</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berry </t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2311090004</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ji</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -57,13 +59,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -740,13 +743,88 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2311130005</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" s="1" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2311130005</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Berry</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2311130005</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pineapple</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2311130005</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -1,100 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josefe Gillego\Documents\Special Project\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DE3040-88A2-4E1C-95FF-0D2CA7CF26E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5268" yWindow="4080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5172" yWindow="1464" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>PlaceHolder</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lola </t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>Staff Name</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>Madons Malanyaon</t>
-  </si>
-  <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
-    <t>Lemon</t>
-  </si>
-  <si>
-    <t>Manis Malanyaon</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,26 +67,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -444,214 +445,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="37.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col width="13.77734375" customWidth="1" min="1" max="1"/>
+    <col width="13.109375" customWidth="1" min="2" max="2"/>
+    <col width="11.6640625" customWidth="1" min="3" max="3"/>
+    <col width="14.77734375" customWidth="1" min="4" max="4"/>
+    <col width="37.21875" customWidth="1" min="5" max="5"/>
+    <col width="12.109375" customWidth="1" min="6" max="6"/>
+    <col width="12.21875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Product Code</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Invoice Number</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>PlaceHolder</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Placeholder</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="5" t="n">
+        <v>2311020000</v>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>Placeholder</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45276</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2312160001</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Josefe Johnatan M. Gillego</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gangbanger Tuna</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2312190002</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kristina Franchesca M. Gillego</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yakuza Teriyaki</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2311020000</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45236</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>2311060001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2311180002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>2311180003</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2311180003</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2311180003</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>2311180004</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2311180004</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45248</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>2311180004</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="D5" t="n">
+        <v>2312200003</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fredrick James Paolo R. Gillego</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hardcore Overload</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2312200003</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fredrick James Paolo R. Gillego</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -602,28 +602,172 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yakuza Teriyaki</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2312200004</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cherry M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chicano Chili</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2312200004</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cherry M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gangbanger Tuna</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2312200004</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cherry M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Waddup Che&amp;Bac</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2312240005</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fredrick James Paolo R. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cheese Burger</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2312240005</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fredrick James Paolo R. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hardcore Overload </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2312240005</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fredrick James Paolo R. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Waddup Che&amp;Bac</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2312240006</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Josefe Johnatan M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Chicano Chili</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2312240007</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Kristina Franchesca M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -519,18 +519,18 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45276</v>
+        <v>45284</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Gangbanger Tuna Burger</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>2312160001</v>
+        <v>2312240001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -540,234 +540,126 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45279</v>
+        <v>45284</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gangbanger Tuna</t>
+          <t xml:space="preserve">Hardcore Overload </t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2312190002</v>
+        <v>2312240001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kristina Franchesca M. Gillego</t>
+          <t>Josefe Johnatan M. Gillego</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45280</v>
+        <v>45284</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yakuza Teriyaki</t>
+          <t>Chicano Chili</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2312200003</v>
+        <v>2312240002</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fredrick James Paolo R. Gillego</t>
+          <t>Josefe Johnatan M. Gillego</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45280</v>
+        <v>45284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hardcore Overload</t>
+          <t>Rastaparay Veg</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2312200003</v>
+        <v>2312240003</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fredrick James Paolo R. Gillego</t>
+          <t>Josefe Johnatan M. Gillego</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45280</v>
+        <v>45284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Yakuza Teriyaki</t>
+          <t>Chicano Chili</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>2312200004</v>
+        <v>2312240003</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cherry M. Gillego</t>
+          <t>Josefe Johnatan M. Gillego</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45280</v>
+        <v>45284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chicano Chili</t>
+          <t xml:space="preserve">Hardcore Overload </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2312200004</v>
+        <v>2312240004</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cherry M. Gillego</t>
+          <t>Jerome</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45280</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gangbanger Tuna</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2312200004</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cherry M. Gillego</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Waddup Che&amp;Bac</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2312240005</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Fredrick James Paolo R. Gillego</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cheese Burger</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2312240005</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Fredrick James Paolo R. Gillego</t>
-        </is>
-      </c>
+      <c r="A11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hardcore Overload </t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2312240005</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Fredrick James Paolo R. Gillego</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Waddup Che&amp;Bac</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2312240006</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Chicano Chili</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2312240007</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Kristina Franchesca M. Gillego</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -644,25 +644,151 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
+      <c r="A9" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chicano Chili</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2312240005</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Josefe Johnatan M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gangbanger Tuna Burger</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2312240005</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Josefe Johnatan M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yakuza Teriyaki</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2312240005</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Josefe Johnatan M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rastaparay Veg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2312240006</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cherry M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gangbanger Tuna Burger</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>789</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2312240007</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cherry M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yakuza Teriyaki</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2312240008</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Kristina Franchesca M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
+      <c r="A15" s="1" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Chicano Chili</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2312240009</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Kristina Franchesca M. Gillego</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>

--- a/Python/TestFile.xlsx
+++ b/Python/TestFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5172" yWindow="1464" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2796" yWindow="408" windowWidth="17280" windowHeight="11736" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,8 +33,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -53,6 +59,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -66,13 +78,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,20 +463,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13.77734375" customWidth="1" min="1" max="1"/>
-    <col width="13.109375" customWidth="1" min="2" max="2"/>
+    <col width="22.5546875" customWidth="1" min="2" max="2"/>
     <col width="11.6640625" customWidth="1" min="3" max="3"/>
     <col width="14.77734375" customWidth="1" min="4" max="4"/>
     <col width="37.21875" customWidth="1" min="5" max="5"/>
-    <col width="12.109375" customWidth="1" min="6" max="6"/>
+    <col width="12.109375" customWidth="1" style="6" min="6" max="6"/>
+    <col width="17.88671875" customWidth="1" min="7" max="7"/>
     <col width="12.21875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -493,6 +507,11 @@
           <t>Staff</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Total Revenue</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
@@ -516,279 +535,48 @@
           <t>Placeholder</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Gangbanger Tuna Burger</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2312240001</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hardcore Overload </t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2312240001</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chicano Chili</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2312240002</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rastaparay Veg</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2312240003</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chicano Chili</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2312240003</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hardcore Overload </t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2312240004</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jerome</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chicano Chili</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2312240005</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Gangbanger Tuna Burger</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2312240005</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Yakuza Teriyaki</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2312240005</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Josefe Johnatan M. Gillego</t>
-        </is>
-      </c>
+      <c r="A11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Rastaparay Veg</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2312240006</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cherry M. Gillego</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Gangbanger Tuna Burger</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>789</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2312240007</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cherry M. Gillego</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Yakuza Teriyaki</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2312240008</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Kristina Franchesca M. Gillego</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45284</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Chicano Chili</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2312240009</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Kristina Franchesca M. Gillego</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -807,6 +595,30 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
